--- a/Newfolder/dsr/data/International_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{312B9A7A-E52D-48A0-98E6-7CA871BB773A}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C181A4AF-BDBE-4B9F-99C1-6B2D59A2EEDE}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="810" windowWidth="31470" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Newfolder/dsr/data/International_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C181A4AF-BDBE-4B9F-99C1-6B2D59A2EEDE}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF4E69A-A102-4915-AE9F-D5F2D920D36B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="82">
   <si>
     <t>country</t>
   </si>
@@ -660,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,10 +1008,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>29</v>
@@ -1023,23 +1023,23 @@
         <v>62</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="9">
         <v>19801</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>36</v>
@@ -1059,7 +1059,9 @@
       <c r="S6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="6"/>
+      <c r="T6" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -1072,7 +1074,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>29</v>
@@ -1084,23 +1086,23 @@
         <v>62</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L7" s="9">
         <v>19801</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>36</v>
@@ -1117,11 +1119,13 @@
       <c r="R7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="6"/>
+      <c r="S7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
     </row>
@@ -1130,10 +1134,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
@@ -1155,13 +1159,13 @@
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L8" s="9">
         <v>19801</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>36</v>
@@ -1178,11 +1182,11 @@
       <c r="R8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="T8" s="6"/>
-      <c r="U8" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
     </row>
@@ -1191,10 +1195,10 @@
         <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>29</v>
@@ -1206,26 +1210,26 @@
         <v>62</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L9" s="9">
         <v>19801</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>11</v>
@@ -1237,17 +1241,15 @@
         <v>11</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="T9" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="U9" s="6"/>
-      <c r="V9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
     </row>
     <row r="10" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1257,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>29</v>
@@ -1279,16 +1281,16 @@
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" s="9">
         <v>19801</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>11</v>
@@ -1300,14 +1302,14 @@
         <v>11</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="U10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="6"/>
       <c r="W10" s="6"/>
     </row>
     <row r="11" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -1315,10 +1317,10 @@
         <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>29</v>
@@ -1330,23 +1332,23 @@
         <v>62</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L11" s="9">
         <v>19801</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>48</v>
@@ -1366,8 +1368,939 @@
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
+      <c r="V11" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="W11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L27" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L28" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L32" s="9">
+        <v>19801</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1376,10 +2309,23 @@
     <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{DC8990D4-B08A-45EF-9770-BDFEDF336BD7}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{23D89CF4-D624-4749-8E0F-AB2D4F8A02A7}"/>
-    <hyperlink ref="E3:E11" r:id="rId4" display="palmone@mailinator.com" xr:uid="{3D293A4F-53DC-48FA-B489-88C08EEC7E6D}"/>
-    <hyperlink ref="F3:F11" r:id="rId5" display="two@mailinator.com" xr:uid="{178514AB-3EDB-42D4-AD30-16EB19809DAE}"/>
+    <hyperlink ref="E3:E13" r:id="rId4" display="palmone@mailinator.com" xr:uid="{3D293A4F-53DC-48FA-B489-88C08EEC7E6D}"/>
+    <hyperlink ref="F3:F13" r:id="rId5" display="two@mailinator.com" xr:uid="{178514AB-3EDB-42D4-AD30-16EB19809DAE}"/>
+    <hyperlink ref="E6" r:id="rId6" display="palmone@mailinator.com" xr:uid="{EBDDF3AC-E044-4B7C-8C7E-C162EA97CA12}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{7E38ECB6-ED50-4BF6-9B43-F763F3546DDF}"/>
+    <hyperlink ref="E7" r:id="rId8" display="palmone@mailinator.com" xr:uid="{279BDAA0-0916-480D-8BA1-C4BBC54AA082}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{BF918178-D207-4F66-860C-6A805B270F17}"/>
+    <hyperlink ref="E21:E23" r:id="rId10" display="palmone@mailinator.com" xr:uid="{3481EE17-54A8-46A5-92AB-311AB8229641}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{9EE97D52-EFF0-4B0C-B133-7EBC98C6A69A}"/>
+    <hyperlink ref="E21" r:id="rId12" xr:uid="{6ACE5AA0-24D5-452B-B84E-444254CAC0B4}"/>
+    <hyperlink ref="E22:E32" r:id="rId13" display="palmone@mailinator.com" xr:uid="{41DFA7F2-45B2-47BF-8637-E01FDA8CD754}"/>
+    <hyperlink ref="F22:F32" r:id="rId14" display="two@mailinator.com" xr:uid="{4D98D64C-02C6-464E-8062-5B4DB176430B}"/>
+    <hyperlink ref="E25" r:id="rId15" display="palmone@mailinator.com" xr:uid="{6E1F65BA-757F-49E0-BB5A-B7FD86E3F380}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{6128A5F4-6076-4B87-A8EC-C281CAC045FE}"/>
+    <hyperlink ref="E26" r:id="rId17" display="palmone@mailinator.com" xr:uid="{0AE3E8E0-78C4-4A84-B513-4980F5F656C7}"/>
+    <hyperlink ref="F26" r:id="rId18" xr:uid="{C8DA2D8D-7FF8-47C5-85B1-3AF5388FEC43}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Newfolder/dsr/data/International_Educatoronbehalfofstudent_form_data.xlsx
+++ b/Newfolder/dsr/data/International_Educatoronbehalfofstudent_form_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://collegeboardorg-my.sharepoint.com/personal/rgunalan_collegeboard_org/Documents/Documents/GitHub/MyRepo/Newfolder/dsr/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF4E69A-A102-4915-AE9F-D5F2D920D36B}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="11_2B59D2BFD350D42E27183B11593158326153E791" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69FBDDA3-855F-4E6B-8480-BEBE33E5A215}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="840" windowWidth="22830" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27240" yWindow="525" windowWidth="26400" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="103">
   <si>
     <t>country</t>
   </si>
@@ -269,13 +269,76 @@
   </si>
   <si>
     <t>Macao</t>
+  </si>
+  <si>
+    <t>arjun.patel@mailinator.com</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>2/28/2007</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>204 Satellite Road, Vastrapur</t>
+  </si>
+  <si>
+    <t>q3zjkwdqoz5lol@mailinator.com</t>
+  </si>
+  <si>
+    <t>Gjrvtmkawginwnsfux</t>
+  </si>
+  <si>
+    <t>Sycbvsgtgtqykenjrxjt</t>
+  </si>
+  <si>
+    <t>riya.nair@mailinator.com</t>
+  </si>
+  <si>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Nair</t>
+  </si>
+  <si>
+    <t>9/5/2007</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>56 Marine Drive, Ernakulam</t>
+  </si>
+  <si>
+    <t>sneha.joshi@mailinator.com</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>3/15/2007</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>55 MI Road, C Scheme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +350,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -332,9 +400,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -350,13 +418,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,19 +731,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.28515625" style="4" customWidth="1"/>
+    <col min="1" max="2" width="18.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -774,10 +848,10 @@
       <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -833,10 +907,10 @@
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -892,10 +966,10 @@
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -951,10 +1025,10 @@
       <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -970,7 +1044,7 @@
       <c r="K5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>19801</v>
       </c>
       <c r="M5" s="6" t="s">
@@ -1016,10 +1090,10 @@
       <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1035,7 +1109,7 @@
       <c r="K6" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>19801</v>
       </c>
       <c r="M6" s="6" t="s">
@@ -1079,10 +1153,10 @@
       <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1098,7 +1172,7 @@
       <c r="K7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="7">
         <v>19801</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -1142,10 +1216,10 @@
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1161,7 +1235,7 @@
       <c r="K8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>19801</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -1203,10 +1277,10 @@
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1222,7 +1296,7 @@
       <c r="K9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="7">
         <v>19801</v>
       </c>
       <c r="M9" s="6" t="s">
@@ -1264,10 +1338,10 @@
       <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1283,7 +1357,7 @@
       <c r="K10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <v>19801</v>
       </c>
       <c r="M10" s="6" t="s">
@@ -1325,10 +1399,10 @@
       <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1344,7 +1418,7 @@
       <c r="K11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="7">
         <v>19801</v>
       </c>
       <c r="M11" s="6" t="s">
@@ -1388,10 +1462,10 @@
       <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -1407,7 +1481,7 @@
       <c r="K12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="7">
         <v>19801</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -1449,10 +1523,10 @@
       <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1468,7 +1542,7 @@
       <c r="K13" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="7">
         <v>19801</v>
       </c>
       <c r="M13" s="6" t="s">
@@ -1576,38 +1650,38 @@
         <v>11</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>18</v>
+        <v>89</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J21" s="6"/>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>10</v>
+      <c r="L21" s="9">
+        <v>380015</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>11</v>
@@ -1632,41 +1706,41 @@
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>19</v>
+        <v>89</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>10</v>
+      <c r="K22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="9">
+        <v>380015</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>11</v>
@@ -1694,38 +1768,38 @@
         <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J23" s="6"/>
-      <c r="K23" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>10</v>
+      <c r="K23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="9">
+        <v>380015</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>11</v>
@@ -1753,38 +1827,38 @@
         <v>11</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L24" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>36</v>
+      <c r="K24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="8">
+        <v>682016</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>11</v>
@@ -1801,12 +1875,8 @@
       <c r="S24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
     </row>
@@ -1818,38 +1888,38 @@
         <v>11</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="J25" s="6"/>
-      <c r="K25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L25" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>36</v>
+      <c r="K25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="8">
+        <v>302001</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>11</v>
@@ -1861,471 +1931,23 @@
         <v>11</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="V25" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L28" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L29" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L30" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W30" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" s="9">
-        <v>19801</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2:E4" r:id="rId1" display="palmone@mailinator.com" xr:uid="{55410B78-C96B-4D68-B38A-DB4C28FA53A2}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{DC8990D4-B08A-45EF-9770-BDFEDF336BD7}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{23D89CF4-D624-4749-8E0F-AB2D4F8A02A7}"/>
-    <hyperlink ref="E3:E13" r:id="rId4" display="palmone@mailinator.com" xr:uid="{3D293A4F-53DC-48FA-B489-88C08EEC7E6D}"/>
-    <hyperlink ref="F3:F13" r:id="rId5" display="two@mailinator.com" xr:uid="{178514AB-3EDB-42D4-AD30-16EB19809DAE}"/>
-    <hyperlink ref="E6" r:id="rId6" display="palmone@mailinator.com" xr:uid="{EBDDF3AC-E044-4B7C-8C7E-C162EA97CA12}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{7E38ECB6-ED50-4BF6-9B43-F763F3546DDF}"/>
-    <hyperlink ref="E7" r:id="rId8" display="palmone@mailinator.com" xr:uid="{279BDAA0-0916-480D-8BA1-C4BBC54AA082}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{BF918178-D207-4F66-860C-6A805B270F17}"/>
-    <hyperlink ref="E21:E23" r:id="rId10" display="palmone@mailinator.com" xr:uid="{3481EE17-54A8-46A5-92AB-311AB8229641}"/>
-    <hyperlink ref="F21" r:id="rId11" xr:uid="{9EE97D52-EFF0-4B0C-B133-7EBC98C6A69A}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{6ACE5AA0-24D5-452B-B84E-444254CAC0B4}"/>
-    <hyperlink ref="E22:E32" r:id="rId13" display="palmone@mailinator.com" xr:uid="{41DFA7F2-45B2-47BF-8637-E01FDA8CD754}"/>
-    <hyperlink ref="F22:F32" r:id="rId14" display="two@mailinator.com" xr:uid="{4D98D64C-02C6-464E-8062-5B4DB176430B}"/>
-    <hyperlink ref="E25" r:id="rId15" display="palmone@mailinator.com" xr:uid="{6E1F65BA-757F-49E0-BB5A-B7FD86E3F380}"/>
-    <hyperlink ref="F25" r:id="rId16" xr:uid="{6128A5F4-6076-4B87-A8EC-C281CAC045FE}"/>
-    <hyperlink ref="E26" r:id="rId17" display="palmone@mailinator.com" xr:uid="{0AE3E8E0-78C4-4A84-B513-4980F5F656C7}"/>
-    <hyperlink ref="F26" r:id="rId18" xr:uid="{C8DA2D8D-7FF8-47C5-85B1-3AF5388FEC43}"/>
+    <hyperlink ref="F21" r:id="rId1" xr:uid="{AA74FBB6-B451-4611-B997-5063C0B55D2E}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{07AF1C1B-CBA8-46B3-B8E1-9CC371CEA14C}"/>
+    <hyperlink ref="F25" r:id="rId3" xr:uid="{79116188-AA67-4870-918C-03BE7E569ECE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>